--- a/PLANIFICACION/PLANIFICACIÓN.xlsx
+++ b/PLANIFICACION/PLANIFICACIÓN.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Planificación</t>
   </si>
@@ -32,7 +32,7 @@
 DE LA TAREA</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>Mayo</t>
   </si>
   <si>
     <t>SEMANA 1</t>
@@ -41,6 +41,9 @@
     <t>SEMANA 2</t>
   </si>
   <si>
+    <t>SEMANA3</t>
+  </si>
+  <si>
     <t>Quico Sánchez</t>
   </si>
   <si>
@@ -53,12 +56,12 @@
     <t>Mockup Portatil</t>
   </si>
   <si>
+    <t>Creación Login</t>
+  </si>
+  <si>
     <t>Validacion de JavaScript</t>
   </si>
   <si>
-    <t>Creación Login</t>
-  </si>
-  <si>
     <t>Xavi Moreno</t>
   </si>
   <si>
@@ -83,13 +86,16 @@
     <t>Javier Martínez</t>
   </si>
   <si>
-    <t>Creacion Validacion</t>
-  </si>
-  <si>
-    <t>Codigo Login</t>
-  </si>
-  <si>
-    <t>Validacion JS</t>
+    <t>Creación Planificación</t>
+  </si>
+  <si>
+    <t>Mockup Móvil</t>
+  </si>
+  <si>
+    <t>Mockup Portátil</t>
+  </si>
+  <si>
+    <t>Validación JS</t>
   </si>
   <si>
     <t>Gerard Rodríguez</t>
@@ -359,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -405,7 +411,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -478,12 +484,6 @@
     <xf borderId="3" fillId="9" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -491,9 +491,6 @@
     <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="6" fillId="9" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -510,6 +507,9 @@
     <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -524,6 +524,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1197,7 +1200,9 @@
       <c r="O9" s="25"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="29"/>
+      <c r="R9" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -1258,7 +1263,7 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="31"/>
@@ -1336,7 +1341,7 @@
         <v>44927.0</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="43">
         <v>1.0</v>
@@ -1390,7 +1395,7 @@
         <v>44958.0</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="43">
         <v>1.0</v>
@@ -1444,7 +1449,7 @@
         <v>44986.0</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="51">
         <v>1.0</v>
@@ -1458,13 +1463,13 @@
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="44"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
+      <c r="O14" s="44"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
       <c r="T14" s="44"/>
       <c r="U14" s="46"/>
       <c r="V14" s="2"/>
@@ -1498,7 +1503,7 @@
         <v>45017.0</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="51">
         <v>1.0</v>
@@ -1512,13 +1517,13 @@
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
       <c r="T15" s="44"/>
       <c r="U15" s="46"/>
       <c r="V15" s="2"/>
@@ -1552,7 +1557,7 @@
         <v>45047.0</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="51">
         <v>1.0</v>
@@ -1602,31 +1607,57 @@
       <c r="AT16" s="2"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="50">
-        <v>45078.0</v>
-      </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="46"/>
+      <c r="A17" s="52">
+        <v>2.0</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="32">
+        <v>6.0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>7.0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>8.0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>9.0</v>
+      </c>
+      <c r="I17" s="32">
+        <v>10.0</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="32">
+        <v>13.0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>14.0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>15.0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>16.0</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="32">
+        <v>21.0</v>
+      </c>
+      <c r="S17" s="32">
+        <v>22.0</v>
+      </c>
+      <c r="T17" s="32">
+        <v>23.0</v>
+      </c>
+      <c r="U17" s="35">
+        <v>24.0</v>
+      </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -1655,30 +1686,32 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="50">
-        <v>45108.0</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="51">
+        <v>44928.0</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="55">
         <v>1.0</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="46"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="59"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -1706,111 +1739,87 @@
       <c r="AT18" s="2"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="54">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="40"/>
+      <c r="A19" s="50">
+        <v>44959.0</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="55">
+        <v>1.0</v>
+      </c>
       <c r="D19" s="56"/>
-      <c r="E19" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F19" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="G19" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="H19" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="I19" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="M19" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="N19" s="32">
-        <v>15.0</v>
-      </c>
-      <c r="O19" s="32">
-        <v>16.0</v>
-      </c>
-      <c r="P19" s="34"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="56"/>
-      <c r="R19" s="32">
-        <v>21.0</v>
-      </c>
-      <c r="S19" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="T19" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="U19" s="35">
-        <v>24.0</v>
-      </c>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="59"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="50">
-        <v>44928.0</v>
+        <v>44987.0</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="58">
+        <v>18</v>
+      </c>
+      <c r="C20" s="55">
         <v>1.0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="62"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="59"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -1839,32 +1848,32 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="50">
-        <v>44959.0</v>
+        <v>45018.0</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="58">
+        <v>19</v>
+      </c>
+      <c r="C21" s="55">
         <v>1.0</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="62"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="59"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -1893,32 +1902,32 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="50">
-        <v>44987.0</v>
+        <v>45048.0</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="58">
+        <v>20</v>
+      </c>
+      <c r="C22" s="55">
         <v>1.0</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="62"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="59"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -1947,32 +1956,32 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="50">
-        <v>45018.0</v>
+        <v>45079.0</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="58">
+        <v>21</v>
+      </c>
+      <c r="C23" s="55">
         <v>1.0</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="62"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="59"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2001,32 +2010,31 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="50">
-        <v>45048.0</v>
+        <v>45109.0</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="58">
+        <v>22</v>
+      </c>
+      <c r="C24" s="55">
         <v>1.0</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="62"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -2054,33 +2062,57 @@
       <c r="AT24" s="2"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="50">
-        <v>45079.0</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="62"/>
+      <c r="A25" s="52">
+        <v>3.0</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="32">
+        <v>6.0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>7.0</v>
+      </c>
+      <c r="G25" s="32">
+        <v>8.0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>9.0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>10.0</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="32">
+        <v>13.0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>14.0</v>
+      </c>
+      <c r="N25" s="32">
+        <v>15.0</v>
+      </c>
+      <c r="O25" s="32">
+        <v>16.0</v>
+      </c>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="32">
+        <v>21.0</v>
+      </c>
+      <c r="S25" s="32">
+        <v>22.0</v>
+      </c>
+      <c r="T25" s="32">
+        <v>23.0</v>
+      </c>
+      <c r="U25" s="35">
+        <v>24.0</v>
+      </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -2108,33 +2140,33 @@
       <c r="AT25" s="2"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="50">
-        <v>45109.0</v>
+      <c r="A26" s="62">
+        <v>44929.0</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="58">
+        <v>24</v>
+      </c>
+      <c r="C26" s="63">
         <v>1.0</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="49"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -2162,103 +2194,79 @@
       <c r="AT26" s="2"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="54">
-        <v>3.0</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F27" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="G27" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="H27" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="I27" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="M27" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="N27" s="32">
-        <v>15.0</v>
-      </c>
-      <c r="O27" s="32">
-        <v>16.0</v>
-      </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="32">
-        <v>21.0</v>
-      </c>
-      <c r="S27" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="T27" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="U27" s="35">
-        <v>24.0</v>
-      </c>
+      <c r="A27" s="62">
+        <v>44960.0</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="49"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="61"/>
+      <c r="AS27" s="61"/>
+      <c r="AT27" s="61"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="64">
-        <v>44929.0</v>
+      <c r="A28" s="62">
+        <v>44988.0</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="65">
+        <v>26</v>
+      </c>
+      <c r="C28" s="63">
         <v>1.0</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="44"/>
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
@@ -2294,27 +2302,27 @@
       <c r="AT28" s="2"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="64">
-        <v>44960.0</v>
+      <c r="A29" s="62">
+        <v>45019.0</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="65">
+        <v>14</v>
+      </c>
+      <c r="C29" s="63">
         <v>1.0</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
       <c r="P29" s="44"/>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
@@ -2348,31 +2356,31 @@
       <c r="AT29" s="2"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="64">
-        <v>44988.0</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="65">
+      <c r="A30" s="62">
+        <v>45049.0</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="63">
         <v>1.0</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
       <c r="T30" s="44"/>
       <c r="U30" s="49"/>
       <c r="V30" s="2"/>
@@ -2402,33 +2410,57 @@
       <c r="AT30" s="2"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="64">
-        <v>45019.0</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="49"/>
+      <c r="A31" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="32">
+        <v>6.0</v>
+      </c>
+      <c r="F31" s="32">
+        <v>7.0</v>
+      </c>
+      <c r="G31" s="32">
+        <v>8.0</v>
+      </c>
+      <c r="H31" s="32">
+        <v>9.0</v>
+      </c>
+      <c r="I31" s="32">
+        <v>10.0</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="32">
+        <v>13.0</v>
+      </c>
+      <c r="M31" s="32">
+        <v>14.0</v>
+      </c>
+      <c r="N31" s="32">
+        <v>15.0</v>
+      </c>
+      <c r="O31" s="32">
+        <v>16.0</v>
+      </c>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="32">
+        <v>21.0</v>
+      </c>
+      <c r="S31" s="32">
+        <v>22.0</v>
+      </c>
+      <c r="T31" s="32">
+        <v>23.0</v>
+      </c>
+      <c r="U31" s="35">
+        <v>24.0</v>
+      </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -2456,33 +2488,33 @@
       <c r="AT31" s="2"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="64">
-        <v>45049.0</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="65">
+      <c r="A32" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="51">
         <v>1.0</v>
       </c>
       <c r="D32" s="67"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="49"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="46"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -2510,57 +2542,33 @@
       <c r="AT32" s="2"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="54">
-        <v>4.0</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F33" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="G33" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="H33" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="I33" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="M33" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="N33" s="32">
-        <v>15.0</v>
-      </c>
-      <c r="O33" s="32">
-        <v>16.0</v>
-      </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="32">
-        <v>21.0</v>
-      </c>
-      <c r="S33" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="T33" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="U33" s="35">
-        <v>24.0</v>
-      </c>
+      <c r="A33" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="46"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -2588,32 +2596,32 @@
       <c r="AT33" s="2"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="68" t="s">
-        <v>27</v>
+      <c r="A34" s="66" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="51">
         <v>1.0</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="45"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="45"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
       <c r="U34" s="46"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -2642,32 +2650,32 @@
       <c r="AT34" s="2"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="68" t="s">
-        <v>29</v>
+      <c r="A35" s="66" t="s">
+        <v>34</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C35" s="51">
         <v>1.0</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
       <c r="U35" s="46"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -2696,32 +2704,32 @@
       <c r="AT35" s="2"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="68" t="s">
-        <v>30</v>
+      <c r="A36" s="66" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="51">
+        <v>18</v>
+      </c>
+      <c r="C36" s="43">
         <v>1.0</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
       <c r="U36" s="46"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -2750,32 +2758,32 @@
       <c r="AT36" s="2"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="68" t="s">
-        <v>32</v>
+      <c r="A37" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="51">
+        <v>38</v>
+      </c>
+      <c r="C37" s="43">
         <v>1.0</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="67"/>
       <c r="U37" s="46"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -2804,33 +2812,31 @@
       <c r="AT37" s="2"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="68" t="s">
-        <v>34</v>
+      <c r="A38" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C38" s="43">
         <v>1.0</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="46"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -2858,33 +2864,6 @@
       <c r="AT38" s="2"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="46"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -2912,56 +2891,31 @@
       <c r="AT39" s="2"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="57"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="57"/>
-      <c r="AI40" s="57"/>
-      <c r="AJ40" s="57"/>
-      <c r="AK40" s="57"/>
-      <c r="AL40" s="57"/>
-      <c r="AM40" s="57"/>
-      <c r="AN40" s="57"/>
-      <c r="AO40" s="57"/>
-      <c r="AP40" s="57"/>
-      <c r="AQ40" s="57"/>
-      <c r="AR40" s="57"/>
-      <c r="AS40" s="57"/>
-      <c r="AT40" s="57"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
       <c r="F41" s="2"/>
@@ -3205,49 +3159,49 @@
       <c r="AT46" s="2"/>
     </row>
     <row r="49">
-      <c r="B49" s="74"/>
+      <c r="B49" s="73"/>
     </row>
     <row r="50">
-      <c r="B50" s="74"/>
+      <c r="B50" s="73"/>
     </row>
     <row r="51">
-      <c r="B51" s="75"/>
+      <c r="B51" s="74"/>
     </row>
     <row r="52">
-      <c r="B52" s="76"/>
+      <c r="B52" s="75"/>
     </row>
     <row r="53">
-      <c r="B53" s="74"/>
+      <c r="B53" s="73"/>
     </row>
     <row r="54">
-      <c r="B54" s="74"/>
+      <c r="B54" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:AG2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:N4"/>
-    <mergeCell ref="N2:AG2"/>
     <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="D8:U8"/>
+    <mergeCell ref="V8:AR8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="L9:O9"/>
     <mergeCell ref="V9:Z9"/>
     <mergeCell ref="AA9:AE9"/>
     <mergeCell ref="AF9:AJ9"/>
     <mergeCell ref="AK9:AO9"/>
     <mergeCell ref="AP9:AT9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V8:AR8"/>
-    <mergeCell ref="E9:I9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:X5"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:U8"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="R9:U9"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/PLANIFICACION/PLANIFICACIÓN.xlsx
+++ b/PLANIFICACION/PLANIFICACIÓN.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repositorioGIT\2324_Proyecto_Grupo5\PLANIFICACION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FC8379-B0C6-4E8B-92D8-5A7F16F10CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Full 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Full 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -140,99 +149,110 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
-    <numFmt numFmtId="165" formatCode="d.m"/>
+    <numFmt numFmtId="165" formatCode="d\.m"/>
     <numFmt numFmtId="166" formatCode="0\ %"/>
-    <numFmt numFmtId="167" formatCode="d\.m"/>
   </numFmts>
   <fonts count="18">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="30.0"/>
+      <sz val="30"/>
       <color rgb="FF0B5394"/>
       <name val="Roboto"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Docs-Roboto"/>
     </font>
@@ -242,7 +262,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -306,266 +326,253 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF0B5394"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFB7B7B7"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFB7B7B7"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FFB7B7B7"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FFB7B7B7"/>
       </right>
+      <top/>
       <bottom style="hair">
         <color rgb="FFB7B7B7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="hair">
         <color rgb="FFB7B7B7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FFB7B7B7"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="166" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="9" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -755,26 +762,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:AG2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="4" max="4" width="3.0"/>
-    <col customWidth="1" min="5" max="41" width="3.75"/>
-    <col customWidth="1" min="42" max="46" width="3.0"/>
+    <col min="2" max="2" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="41" width="3.77734375" customWidth="1"/>
+    <col min="42" max="46" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:50" ht="13.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -794,95 +806,95 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+    </row>
+    <row r="2" spans="1:50" ht="38.4">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+    </row>
+    <row r="3" spans="1:50" ht="13.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -900,67 +912,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+    </row>
+    <row r="4" spans="1:50" ht="13.2">
+      <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="3"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -986,37 +998,37 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+    <row r="5" spans="1:50" ht="13.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="14">
-        <v>44818.0</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="3"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="55">
+        <v>44818</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -1025,7 +1037,7 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="3"/>
+      <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -1042,9 +1054,9 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:50" ht="14.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1071,7 +1083,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="17"/>
+      <c r="AC6" s="4"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1085,7 +1097,7 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
-      <c r="AQ6" s="17"/>
+      <c r="AQ6" s="4"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
@@ -1094,28 +1106,28 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
+    <row r="7" spans="1:50" ht="14.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1141,174 +1153,220 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+    </row>
+    <row r="8" spans="1:50" ht="13.2">
+      <c r="A8" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
     </row>
-    <row r="9">
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29" t="s">
+    <row r="9" spans="1:50" ht="13.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="29" t="s">
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AP9" s="26"/>
-    </row>
-    <row r="10">
-      <c r="C10" s="27"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+    </row>
+    <row r="10" spans="1:50" ht="13.2">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+    </row>
+    <row r="11" spans="1:50" ht="14.4">
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F11" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="G11" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="H11" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="I11" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="M11" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="N11" s="32">
-        <v>15.0</v>
-      </c>
-      <c r="O11" s="32">
-        <v>16.0</v>
-      </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32">
-        <v>21.0</v>
-      </c>
-      <c r="S11" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="T11" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="U11" s="35">
-        <v>24.0</v>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11">
+        <v>7</v>
+      </c>
+      <c r="G11" s="11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
+        <v>13</v>
+      </c>
+      <c r="M11" s="11">
+        <v>14</v>
+      </c>
+      <c r="N11" s="11">
+        <v>15</v>
+      </c>
+      <c r="O11" s="11">
+        <v>16</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11">
+        <v>21</v>
+      </c>
+      <c r="S11" s="11">
+        <v>22</v>
+      </c>
+      <c r="T11" s="11">
+        <v>23</v>
+      </c>
+      <c r="U11" s="13">
+        <v>24</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -1336,34 +1394,34 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="41">
-        <v>44927.0</v>
-      </c>
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="1:50" ht="15" customHeight="1">
+      <c r="A12" s="18">
+        <v>44927</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="46"/>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1390,34 +1448,34 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
     </row>
-    <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="41">
-        <v>44958.0</v>
-      </c>
-      <c r="B13" s="42" t="s">
+    <row r="13" spans="1:50" ht="15" customHeight="1">
+      <c r="A13" s="18">
+        <v>44958</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="49"/>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="24"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1444,34 +1502,34 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
     </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="50">
-        <v>44986.0</v>
-      </c>
-      <c r="B14" s="42" t="s">
+    <row r="14" spans="1:50" ht="15" customHeight="1">
+      <c r="A14" s="18">
+        <v>44986</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="46"/>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="23"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1498,34 +1556,34 @@
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="50">
-        <v>45017.0</v>
-      </c>
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="1:50" ht="15" customHeight="1">
+      <c r="A15" s="18">
+        <v>45017</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="46"/>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="23"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1552,34 +1610,34 @@
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
     </row>
-    <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="50">
-        <v>45047.0</v>
-      </c>
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="1:50" ht="15" customHeight="1">
+      <c r="A16" s="18">
+        <v>45047</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="46"/>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -1606,57 +1664,57 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
     </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="B17" s="53" t="s">
+    <row r="17" spans="1:46" ht="15" customHeight="1">
+      <c r="A17" s="15">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="G17" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="H17" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="I17" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="M17" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="N17" s="32">
-        <v>15.0</v>
-      </c>
-      <c r="O17" s="32">
-        <v>16.0</v>
-      </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="32">
-        <v>21.0</v>
-      </c>
-      <c r="S17" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="T17" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="U17" s="35">
-        <v>24.0</v>
+      <c r="C17" s="17"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="11">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11">
+        <v>8</v>
+      </c>
+      <c r="H17" s="11">
+        <v>9</v>
+      </c>
+      <c r="I17" s="11">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>13</v>
+      </c>
+      <c r="M17" s="11">
+        <v>14</v>
+      </c>
+      <c r="N17" s="11">
+        <v>15</v>
+      </c>
+      <c r="O17" s="11">
+        <v>16</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="11">
+        <v>21</v>
+      </c>
+      <c r="S17" s="11">
+        <v>22</v>
+      </c>
+      <c r="T17" s="11">
+        <v>23</v>
+      </c>
+      <c r="U17" s="13">
+        <v>24</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -1684,34 +1742,34 @@
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
     </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="50">
-        <v>44928.0</v>
-      </c>
-      <c r="B18" s="42" t="s">
+    <row r="18" spans="1:46" ht="15" customHeight="1">
+      <c r="A18" s="18">
+        <v>44928</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="59"/>
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="31"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -1738,88 +1796,88 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
     </row>
-    <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="50">
-        <v>44959.0</v>
-      </c>
-      <c r="B19" s="42" t="s">
+    <row r="19" spans="1:46" ht="15" customHeight="1">
+      <c r="A19" s="18">
+        <v>44959</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="59"/>
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="31"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-    </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="50">
-        <v>44987.0</v>
-      </c>
-      <c r="B20" s="42" t="s">
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+    </row>
+    <row r="20" spans="1:46" ht="15" customHeight="1">
+      <c r="A20" s="18">
+        <v>44987</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="59"/>
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="31"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -1846,34 +1904,34 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
     </row>
-    <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="50">
-        <v>45018.0</v>
-      </c>
-      <c r="B21" s="42" t="s">
+    <row r="21" spans="1:46" ht="15" customHeight="1">
+      <c r="A21" s="18">
+        <v>45018</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="59"/>
+      <c r="C21" s="27">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="31"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -1900,34 +1958,34 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
     </row>
-    <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="50">
-        <v>45048.0</v>
-      </c>
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="1:46" ht="15" customHeight="1">
+      <c r="A22" s="18">
+        <v>45048</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="59"/>
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="31"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -1954,34 +2012,34 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
     </row>
-    <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="50">
-        <v>45079.0</v>
-      </c>
-      <c r="B23" s="42" t="s">
+    <row r="23" spans="1:46" ht="15" customHeight="1">
+      <c r="A23" s="18">
+        <v>45079</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="59"/>
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="31"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2008,33 +2066,33 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="50">
-        <v>45109.0</v>
-      </c>
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="1:46" ht="15" customHeight="1">
+      <c r="A24" s="18">
+        <v>45109</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
+      <c r="C24" s="27">
+        <v>1</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -2049,7 +2107,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="3"/>
+      <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
@@ -2061,57 +2119,57 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="B25" s="39" t="s">
+    <row r="25" spans="1:46" ht="15" customHeight="1">
+      <c r="A25" s="15">
+        <v>3</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F25" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="G25" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="H25" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="I25" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="M25" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="N25" s="32">
-        <v>15.0</v>
-      </c>
-      <c r="O25" s="32">
-        <v>16.0</v>
-      </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="32">
-        <v>21.0</v>
-      </c>
-      <c r="S25" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="T25" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="U25" s="35">
-        <v>24.0</v>
+      <c r="C25" s="17"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="11">
+        <v>6</v>
+      </c>
+      <c r="F25" s="11">
+        <v>7</v>
+      </c>
+      <c r="G25" s="11">
+        <v>8</v>
+      </c>
+      <c r="H25" s="11">
+        <v>9</v>
+      </c>
+      <c r="I25" s="11">
+        <v>10</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
+        <v>13</v>
+      </c>
+      <c r="M25" s="11">
+        <v>14</v>
+      </c>
+      <c r="N25" s="11">
+        <v>15</v>
+      </c>
+      <c r="O25" s="11">
+        <v>16</v>
+      </c>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="11">
+        <v>21</v>
+      </c>
+      <c r="S25" s="11">
+        <v>22</v>
+      </c>
+      <c r="T25" s="11">
+        <v>23</v>
+      </c>
+      <c r="U25" s="13">
+        <v>24</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -2128,10 +2186,10 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
@@ -2139,34 +2197,34 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
     </row>
-    <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="62">
-        <v>44929.0</v>
-      </c>
-      <c r="B26" s="42" t="s">
+    <row r="26" spans="1:46" ht="15" customHeight="1">
+      <c r="A26" s="18">
+        <v>44929</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="49"/>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="24"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -2184,8 +2242,8 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
@@ -2193,88 +2251,88 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
     </row>
-    <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="62">
-        <v>44960.0</v>
-      </c>
-      <c r="B27" s="42" t="s">
+    <row r="27" spans="1:46" ht="15" customHeight="1">
+      <c r="A27" s="18">
+        <v>44960</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="49"/>
+      <c r="C27" s="25">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="24"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="61"/>
-      <c r="AN27" s="61"/>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="61"/>
-      <c r="AR27" s="61"/>
-      <c r="AS27" s="61"/>
-      <c r="AT27" s="61"/>
-    </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="62">
-        <v>44988.0</v>
-      </c>
-      <c r="B28" s="42" t="s">
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="33"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="33"/>
+      <c r="AT27" s="33"/>
+    </row>
+    <row r="28" spans="1:46" ht="15" customHeight="1">
+      <c r="A28" s="18">
+        <v>44988</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="49"/>
+      <c r="C28" s="25">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -2301,34 +2359,34 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
     </row>
-    <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="62">
-        <v>45019.0</v>
-      </c>
-      <c r="B29" s="42" t="s">
+    <row r="29" spans="1:46" ht="15" customHeight="1">
+      <c r="A29" s="18">
+        <v>45019</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="49"/>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="24"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -2355,34 +2413,34 @@
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
     </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="62">
-        <v>45049.0</v>
-      </c>
-      <c r="B30" s="64" t="s">
+    <row r="30" spans="1:46" ht="15" customHeight="1">
+      <c r="A30" s="18">
+        <v>45049</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="49"/>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="24"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -2409,57 +2467,57 @@
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
     </row>
-    <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="52">
-        <v>4.0</v>
-      </c>
-      <c r="B31" s="39" t="s">
+    <row r="31" spans="1:46" ht="15" customHeight="1">
+      <c r="A31" s="15">
+        <v>4</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F31" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="G31" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="H31" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="I31" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="M31" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="N31" s="32">
-        <v>15.0</v>
-      </c>
-      <c r="O31" s="32">
-        <v>16.0</v>
-      </c>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="32">
-        <v>21.0</v>
-      </c>
-      <c r="S31" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="T31" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="U31" s="35">
-        <v>24.0</v>
+      <c r="C31" s="17"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="11">
+        <v>6</v>
+      </c>
+      <c r="F31" s="11">
+        <v>7</v>
+      </c>
+      <c r="G31" s="11">
+        <v>8</v>
+      </c>
+      <c r="H31" s="11">
+        <v>9</v>
+      </c>
+      <c r="I31" s="11">
+        <v>10</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11">
+        <v>13</v>
+      </c>
+      <c r="M31" s="11">
+        <v>14</v>
+      </c>
+      <c r="N31" s="11">
+        <v>15</v>
+      </c>
+      <c r="O31" s="11">
+        <v>16</v>
+      </c>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="11">
+        <v>21</v>
+      </c>
+      <c r="S31" s="11">
+        <v>22</v>
+      </c>
+      <c r="T31" s="11">
+        <v>23</v>
+      </c>
+      <c r="U31" s="13">
+        <v>24</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -2487,34 +2545,34 @@
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
     </row>
-    <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="66" t="s">
+    <row r="32" spans="1:46" ht="15" customHeight="1">
+      <c r="A32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="46"/>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="23"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -2541,34 +2599,34 @@
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
     </row>
-    <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="66" t="s">
+    <row r="33" spans="1:46" ht="15" customHeight="1">
+      <c r="A33" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="46"/>
+      <c r="C33" s="25">
+        <v>1</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="23"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -2595,34 +2653,34 @@
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
     </row>
-    <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="66" t="s">
+    <row r="34" spans="1:46" ht="15" customHeight="1">
+      <c r="A34" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="46"/>
+      <c r="C34" s="25">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="23"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -2649,34 +2707,34 @@
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
     </row>
-    <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="66" t="s">
+    <row r="35" spans="1:46" ht="15" customHeight="1">
+      <c r="A35" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="46"/>
+      <c r="C35" s="25">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="23"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -2703,34 +2761,34 @@
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
     </row>
-    <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="66" t="s">
+    <row r="36" spans="1:46" ht="15" customHeight="1">
+      <c r="A36" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="46"/>
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="23"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -2757,34 +2815,34 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
     </row>
-    <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="66" t="s">
+    <row r="37" spans="1:46" ht="15" customHeight="1">
+      <c r="A37" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="46"/>
+      <c r="C37" s="20">
+        <v>1</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="23"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -2795,13 +2853,13 @@
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
@@ -2811,32 +2869,32 @@
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
     </row>
-    <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="66" t="s">
+    <row r="38" spans="1:46" ht="15" customHeight="1">
+      <c r="A38" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
+      <c r="C38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -2852,8 +2910,8 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
@@ -2863,7 +2921,7 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
     </row>
-    <row r="39" ht="15.0" customHeight="1">
+    <row r="39" spans="1:46" ht="15" customHeight="1">
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -2884,40 +2942,40 @@
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
     </row>
-    <row r="40" ht="15.0" customHeight="1">
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="61"/>
+    <row r="40" spans="1:46" ht="15" customHeight="1">
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="61"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="61"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="61"/>
-      <c r="AK40" s="61"/>
-      <c r="AL40" s="61"/>
-      <c r="AM40" s="61"/>
-      <c r="AN40" s="61"/>
-      <c r="AO40" s="61"/>
-      <c r="AP40" s="61"/>
-      <c r="AQ40" s="61"/>
-      <c r="AR40" s="61"/>
-      <c r="AS40" s="61"/>
-      <c r="AT40" s="61"/>
-    </row>
-    <row r="41" ht="15.0" customHeight="1">
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="33"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33"/>
+      <c r="AT40" s="33"/>
+    </row>
+    <row r="41" spans="1:46" ht="15" customHeight="1">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2960,7 +3018,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
     </row>
-    <row r="42" ht="15.0" customHeight="1">
+    <row r="42" spans="1:46" ht="15" customHeight="1">
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3003,7 +3061,7 @@
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
     </row>
-    <row r="43" ht="15.0" customHeight="1">
+    <row r="43" spans="1:46" ht="15" customHeight="1">
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -3036,8 +3094,8 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
@@ -3046,7 +3104,7 @@
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
     </row>
-    <row r="44" ht="15.0" customHeight="1">
+    <row r="44" spans="1:46" ht="15" customHeight="1">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -3089,7 +3147,7 @@
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:46" ht="13.2">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3132,7 +3190,7 @@
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:46" ht="13.2">
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
@@ -3158,33 +3216,34 @@
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
     </row>
-    <row r="49">
-      <c r="B49" s="73"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="73"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="74"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="75"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="73"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="73"/>
+    <row r="49" spans="2:2" ht="13.2">
+      <c r="B49" s="40"/>
+    </row>
+    <row r="50" spans="2:2" ht="13.2">
+      <c r="B50" s="40"/>
+    </row>
+    <row r="51" spans="2:2" ht="13.2">
+      <c r="B51" s="41"/>
+    </row>
+    <row r="52" spans="2:2" ht="13.2">
+      <c r="B52" s="42"/>
+    </row>
+    <row r="53" spans="2:2" ht="13.2">
+      <c r="B53" s="40"/>
+    </row>
+    <row r="54" spans="2:2" ht="13.2">
+      <c r="B54" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:AG2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="R9:U9"/>
     <mergeCell ref="D8:U8"/>
     <mergeCell ref="V8:AR8"/>
     <mergeCell ref="E9:I9"/>
@@ -3194,15 +3253,14 @@
     <mergeCell ref="AF9:AJ9"/>
     <mergeCell ref="AK9:AO9"/>
     <mergeCell ref="AP9:AT9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:AG2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:Y4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>